--- a/stimuli.xlsx
+++ b/stimuli.xlsx
@@ -2007,7 +2007,7 @@
         <v>17</v>
       </c>
       <c r="J2">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
